--- a/media/output/result/sepsis_cases_1_simple_evaluation_edit_distance_lib.xlsx
+++ b/media/output/result/sepsis_cases_1_simple_evaluation_edit_distance_lib.xlsx
@@ -682,22 +682,22 @@
         <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.1951219512195122</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>148</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>132</v>
+        <v>43</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.1846153846153846</v>
       </c>
     </row>
     <row r="11">
@@ -737,25 +737,25 @@
         <v>146</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1095890410958904</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.3125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1975308641975309</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="12">

--- a/media/output/result/sepsis_cases_1_simple_evaluation_edit_distance_lib.xlsx
+++ b/media/output/result/sepsis_cases_1_simple_evaluation_edit_distance_lib.xlsx
@@ -476,11 +476,11 @@
         <v>151</v>
       </c>
       <c r="C2" t="n">
+        <v>135</v>
+      </c>
+      <c r="D2" t="n">
         <v>16</v>
       </c>
-      <c r="D2" t="n">
-        <v>135</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -488,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="3">
@@ -505,11 +505,11 @@
         <v>151</v>
       </c>
       <c r="C3" t="n">
+        <v>135</v>
+      </c>
+      <c r="D3" t="n">
         <v>16</v>
       </c>
-      <c r="D3" t="n">
-        <v>135</v>
-      </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="4">
@@ -534,11 +534,11 @@
         <v>151</v>
       </c>
       <c r="C4" t="n">
+        <v>135</v>
+      </c>
+      <c r="D4" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
-        <v>135</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -546,13 +546,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="5">
@@ -563,11 +563,11 @@
         <v>151</v>
       </c>
       <c r="C5" t="n">
+        <v>135</v>
+      </c>
+      <c r="D5" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
-        <v>135</v>
-      </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
@@ -575,13 +575,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="6">
@@ -592,11 +592,11 @@
         <v>151</v>
       </c>
       <c r="C6" t="n">
+        <v>135</v>
+      </c>
+      <c r="D6" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
-        <v>135</v>
-      </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="7">
@@ -621,11 +621,11 @@
         <v>151</v>
       </c>
       <c r="C7" t="n">
+        <v>135</v>
+      </c>
+      <c r="D7" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
-        <v>135</v>
-      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8940397350993378</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9440559440559442</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         <v>151</v>
       </c>
       <c r="C8" t="n">
+        <v>132</v>
+      </c>
+      <c r="D8" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
-        <v>135</v>
-      </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1916167664670659</v>
+        <v>0.9328621908127209</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>151</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D9" t="n">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0.3185185185185185</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1951219512195122</v>
+        <v>0.4673913043478261</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>148</v>
       </c>
       <c r="C10" t="n">
+        <v>43</v>
+      </c>
+      <c r="D10" t="n">
         <v>6</v>
       </c>
-      <c r="D10" t="n">
-        <v>43</v>
-      </c>
       <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
         <v>89</v>
       </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
       <c r="G10" t="n">
-        <v>0.1224489795918367</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="H10" t="n">
-        <v>0.375</v>
+        <v>0.3257575757575757</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1846153846153846</v>
+        <v>0.4751381215469612</v>
       </c>
     </row>
     <row r="11">
@@ -737,25 +737,25 @@
         <v>146</v>
       </c>
       <c r="C11" t="n">
+        <v>41</v>
+      </c>
+      <c r="D11" t="n">
         <v>5</v>
       </c>
-      <c r="D11" t="n">
-        <v>41</v>
-      </c>
       <c r="E11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F11" t="n">
         <v>89</v>
       </c>
-      <c r="F11" t="n">
-        <v>11</v>
-      </c>
       <c r="G11" t="n">
-        <v>0.108695652173913</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3125</v>
+        <v>0.3153846153846154</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.4659090909090909</v>
       </c>
     </row>
     <row r="12">
